--- a/data/trans_orig/Q17H_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q17H_R-Dificultad-trans_orig.xlsx
@@ -704,33 +704,33 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.946674270770024</v>
+        <v>8.000967008380508</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.3284260093923</v>
+        <v>7.313213694591585</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.769806132383388</v>
+        <v>1.766143267678635</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>3.905137874425769</v>
+        <v>4.002508756469901</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.826198405632339</v>
+        <v>3.855568967494643</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.580109678582089</v>
+        <v>1.584808265859447</v>
       </c>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>5.741854567762602</v>
+        <v>5.703514178920409</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5.712394333552168</v>
+        <v>5.773852081061789</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.710425409942584</v>
+        <v>1.709071762365297</v>
       </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
@@ -742,33 +742,33 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.31511203618095</v>
+        <v>11.37662793713988</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.68458864848515</v>
+        <v>9.765141445920822</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.083759454349587</v>
+        <v>2.096200822553442</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>5.357601987735437</v>
+        <v>5.414425580728806</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.366006434584915</v>
+        <v>6.256276356179043</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.871929828655953</v>
+        <v>1.854717642762522</v>
       </c>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>7.230918012405413</v>
+        <v>7.328581919765289</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7.402404661541872</v>
+        <v>7.393103712559355</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>1.922753421222911</v>
+        <v>1.915946599721409</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -828,33 +828,33 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.705808094136671</v>
+        <v>7.783087440120934</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.198671565044679</v>
+        <v>7.249065190829271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.690071606261492</v>
+        <v>1.698600577342593</v>
       </c>
       <c r="F8" s="5" t="inlineStr"/>
       <c r="G8" s="5" t="n">
-        <v>4.751375360308058</v>
+        <v>4.730409462391856</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.970878195617034</v>
+        <v>3.988505966498682</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.477887620716491</v>
+        <v>1.497476644799162</v>
       </c>
       <c r="J8" s="5" t="inlineStr"/>
       <c r="K8" s="5" t="n">
-        <v>6.463212005889605</v>
+        <v>6.463786285631097</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5.693544521740258</v>
+        <v>5.668346898995997</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.64521075740685</v>
+        <v>1.634174702484113</v>
       </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
@@ -866,33 +866,33 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.886561526376372</v>
+        <v>9.958981813340477</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.128225906924568</v>
+        <v>9.187425943336475</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.038727230429806</v>
+        <v>2.039038719151889</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>6.045363363659354</v>
+        <v>6.093764825695725</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>4.985684876454287</v>
+        <v>4.994888974780179</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>1.791503696544058</v>
+        <v>1.794982003521823</v>
       </c>
       <c r="J9" s="5" t="inlineStr"/>
       <c r="K9" s="5" t="n">
-        <v>7.647505184053879</v>
+        <v>7.651754748266789</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.739279656961415</v>
+        <v>6.712463351945773</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>1.874692032944144</v>
+        <v>1.8577837868353</v>
       </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
@@ -952,33 +952,33 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.559966984301078</v>
+        <v>7.483327318040337</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.060496710249456</v>
+        <v>6.059936208756215</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.715118214600888</v>
+        <v>1.725272706522917</v>
       </c>
       <c r="F11" s="5" t="inlineStr"/>
       <c r="G11" s="5" t="n">
-        <v>4.915599911596956</v>
+        <v>4.879188590792038</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.822770371758398</v>
+        <v>3.827881610021309</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.578268848813909</v>
+        <v>1.550946623580526</v>
       </c>
       <c r="J11" s="5" t="inlineStr"/>
       <c r="K11" s="5" t="n">
-        <v>6.468347009496012</v>
+        <v>6.457543274828363</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5.071423401013522</v>
+        <v>5.081344955222515</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.694081568928139</v>
+        <v>1.704860254539164</v>
       </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
@@ -990,33 +990,33 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.245428052102303</v>
+        <v>9.101318806050296</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.12559141624096</v>
+        <v>8.185697333016734</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.110121043846321</v>
+        <v>2.098916213157667</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>6.285834072277395</v>
+        <v>6.317458063986535</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.171681095892466</v>
+        <v>5.134954242720308</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.937246514354123</v>
+        <v>1.926455827465642</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>7.593529114148114</v>
+        <v>7.625916659384958</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6.325751482765831</v>
+        <v>6.317158676960553</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.962154692876692</v>
+        <v>1.935658979733849</v>
       </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
@@ -1076,33 +1076,33 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.154741893339272</v>
+        <v>8.113655158320665</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.134432421302705</v>
+        <v>7.40442190746389</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.675892393438597</v>
+        <v>1.680620264615905</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="n">
-        <v>3.800018221809248</v>
+        <v>3.752661088880836</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.820400381953227</v>
+        <v>3.804784862494481</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.777286334310398</v>
+        <v>1.760931770367798</v>
       </c>
       <c r="J14" s="5" t="inlineStr"/>
       <c r="K14" s="5" t="n">
-        <v>6.367131978074738</v>
+        <v>6.440471561512079</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5.831399718960222</v>
+        <v>5.806811767282468</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.7702794435051</v>
+        <v>1.790815943887512</v>
       </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
@@ -1114,33 +1114,33 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.52226251902023</v>
+        <v>12.39319440789455</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.96782064994007</v>
+        <v>11.93103266735737</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.141465621285043</v>
+        <v>2.139752492069068</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="n">
-        <v>5.298600006995723</v>
+        <v>5.167618287974075</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>5.965438379132961</v>
+        <v>5.955602214028881</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.244287442783352</v>
+        <v>2.255266720345923</v>
       </c>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="n">
-        <v>9.107315511307229</v>
+        <v>9.025452241380361</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8.37246398070797</v>
+        <v>8.441222899680543</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.124445752985932</v>
+        <v>2.131276947919578</v>
       </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
@@ -1200,33 +1200,33 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.21631339840466</v>
+        <v>8.229454893822092</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.386730104258723</v>
+        <v>7.41006327556445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.802317712200988</v>
+        <v>1.801238454160916</v>
       </c>
       <c r="F17" s="5" t="inlineStr"/>
       <c r="G17" s="5" t="n">
-        <v>4.76933895612242</v>
+        <v>4.764992960711419</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.109359439394723</v>
+        <v>4.12153071823303</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.657186416721157</v>
+        <v>1.658964784328729</v>
       </c>
       <c r="J17" s="5" t="inlineStr"/>
       <c r="K17" s="5" t="n">
-        <v>6.56694794918018</v>
+        <v>6.611211570601178</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5.829909175902443</v>
+        <v>5.845236398996379</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.758335820303708</v>
+        <v>1.754811752884086</v>
       </c>
       <c r="N17" s="5" t="inlineStr"/>
     </row>
@@ -1238,33 +1238,33 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.445278698136457</v>
+        <v>9.448800079204769</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.604559683003929</v>
+        <v>8.639243184064444</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.983764722078003</v>
+        <v>1.994478834106286</v>
       </c>
       <c r="F18" s="5" t="inlineStr"/>
       <c r="G18" s="5" t="n">
-        <v>5.483391012999223</v>
+        <v>5.456589285096511</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.00834409800868</v>
+        <v>5.091759045677165</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.821744528100211</v>
+        <v>1.820286819340905</v>
       </c>
       <c r="J18" s="5" t="inlineStr"/>
       <c r="K18" s="5" t="n">
-        <v>7.295920325999809</v>
+        <v>7.35099813818922</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.560806282310136</v>
+        <v>6.577792768264429</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>1.877546099735447</v>
+        <v>1.877488095171212</v>
       </c>
       <c r="N18" s="5" t="inlineStr"/>
     </row>
